--- a/www/RPTOOL_WQS_Template.xlsx
+++ b/www/RPTOOL_WQS_Template.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/fisher_adam_epa_gov/Documents/Projects/Clean Water Regulatory Branch/NPDES Section/RPA Tool/RPA app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/fisher_adam_epa_gov/Documents/Projects/Clean Water Regulatory Branch/NPDES Section/RPA Tool/RPA app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{D3A1C9D9-45B7-4774-BF38-791F32C01590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4F8751-BB5F-431C-AA71-7D08E6ED74C9}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{D3A1C9D9-45B7-4774-BF38-791F32C01590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7A3E27-A87D-42D3-8EEA-A2728993E1CD}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="936" windowWidth="23256" windowHeight="12576" xr2:uid="{0CD2DB0D-7E63-42E8-940B-D4E5BF2F4DC9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="554" xr2:uid="{0CD2DB0D-7E63-42E8-940B-D4E5BF2F4DC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="WQS" sheetId="1" r:id="rId2"/>
-    <sheet name="DATA_DICTIONARY" sheetId="3" r:id="rId3"/>
+    <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
+    <sheet name="Parameter Domains" sheetId="4" r:id="rId4"/>
+    <sheet name="Unit Dimains" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -511,8 +513,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.17578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.8203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.87890625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,7 +568,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="15.5859375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.64453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.46875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
@@ -620,4 +623,28 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEA034-A0D8-493C-B0E9-07EE1EA6265C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A866BC-4362-43B0-820A-EA99E9A0BA40}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/www/RPTOOL_WQS_Template.xlsx
+++ b/www/RPTOOL_WQS_Template.xlsx
@@ -647,4 +647,515 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AFBD178B4236A4A9BE91A23126B4CB2" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="23985145a7a46d2ed41ebe5096764260">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="bdd67f5a-0be2-4509-8207-0a269473728d" xmlns:ns6="f275cc5f-0233-4274-b569-dca1bec93dbb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2469e46f73a3bcf44179adca5519bfd5" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint.v3"/>
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <xsd:import namespace="bdd67f5a-0be2-4509-8207-0a269473728d"/>
+    <xsd:import namespace="f275cc5f-0233-4274-b569-dca1bec93dbb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:Document_x0020_Creation_x0020_Date" minOccurs="0"/>
+                <xsd:element ref="ns2:Creator" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Office" minOccurs="0"/>
+                <xsd:element ref="ns2:Record" minOccurs="0"/>
+                <xsd:element ref="ns3:CategoryDescription" minOccurs="0"/>
+                <xsd:element ref="ns2:Identifier" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Contributor" minOccurs="0"/>
+                <xsd:element ref="ns2:External_x0020_Contributor" minOccurs="0"/>
+                <xsd:element ref="ns4:_Coverage" minOccurs="0"/>
+                <xsd:element ref="ns2:EPA_x0020_Related_x0020_Documents" minOccurs="0"/>
+                <xsd:element ref="ns4:_Source" minOccurs="0"/>
+                <xsd:element ref="ns2:Rights" minOccurs="0"/>
+                <xsd:element ref="ns1:Language" minOccurs="0"/>
+                <xsd:element ref="ns2:j747ac98061d40f0aa7bd47e1db5675d" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns6:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns6:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns5:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns5:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Language" ma:index="17" nillable="true" ma:displayName="Language" ma:default="English" ma:description="Select the document language from the drop down." ma:format="Dropdown" ma:internalName="Language" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Arabic (Saudi Arabia)"/>
+          <xsd:enumeration value="Bulgarian (Bulgaria)"/>
+          <xsd:enumeration value="Chinese (Hong Kong S.A.R.)"/>
+          <xsd:enumeration value="Chinese (People's Republic of China)"/>
+          <xsd:enumeration value="Chinese (Taiwan)"/>
+          <xsd:enumeration value="Croatian (Croatia)"/>
+          <xsd:enumeration value="Czech (Czech Republic)"/>
+          <xsd:enumeration value="Danish (Denmark)"/>
+          <xsd:enumeration value="Dutch (Netherlands)"/>
+          <xsd:enumeration value="English"/>
+          <xsd:enumeration value="Estonian (Estonia)"/>
+          <xsd:enumeration value="Finnish (Finland)"/>
+          <xsd:enumeration value="French (France)"/>
+          <xsd:enumeration value="German (Germany)"/>
+          <xsd:enumeration value="Greek (Greece)"/>
+          <xsd:enumeration value="Hebrew (Israel)"/>
+          <xsd:enumeration value="Hindi (India)"/>
+          <xsd:enumeration value="Hungarian (Hungary)"/>
+          <xsd:enumeration value="Indonesian (Indonesia)"/>
+          <xsd:enumeration value="Italian (Italy)"/>
+          <xsd:enumeration value="Japanese (Japan)"/>
+          <xsd:enumeration value="Korean (Korea)"/>
+          <xsd:enumeration value="Latvian (Latvia)"/>
+          <xsd:enumeration value="Lithuanian (Lithuania)"/>
+          <xsd:enumeration value="Malay (Malaysia)"/>
+          <xsd:enumeration value="Norwegian (Bokmal) (Norway)"/>
+          <xsd:enumeration value="Polish (Poland)"/>
+          <xsd:enumeration value="Portuguese (Brazil)"/>
+          <xsd:enumeration value="Portuguese (Portugal)"/>
+          <xsd:enumeration value="Romanian (Romania)"/>
+          <xsd:enumeration value="Russian (Russia)"/>
+          <xsd:enumeration value="Serbian (Latin) (Serbia)"/>
+          <xsd:enumeration value="Slovak (Slovakia)"/>
+          <xsd:enumeration value="Slovenian (Slovenia)"/>
+          <xsd:enumeration value="Spanish (Spain)"/>
+          <xsd:enumeration value="Swedish (Sweden)"/>
+          <xsd:enumeration value="Thai (Thailand)"/>
+          <xsd:enumeration value="Turkish (Turkey)"/>
+          <xsd:enumeration value="Ukrainian (Ukraine)"/>
+          <xsd:enumeration value="Urdu (Islamic Republic of Pakistan)"/>
+          <xsd:enumeration value="Vietnamese (Vietnam)"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Document_x0020_Creation_x0020_Date" ma:index="2" nillable="true" ma:displayName="Document Date" ma:default="[today]" ma:description="Enter the date this document was last modified. The upload date has been entered by default." ma:format="DateOnly" ma:internalName="Document_x0020_Creation_x0020_Date" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Creator" ma:index="3" nillable="true" ma:displayName="Creator" ma:description="Enter the person primarily responsible for the document. The name of the person uploading the document has been entered by default." ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="Creator" ma:readOnly="false" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Office" ma:index="4" nillable="true" ma:displayName="EPA Office" ma:description="Enter the EPA organization primarily responsible for the document. The office of the person uploading the document has been entered by default." ma:internalName="EPA_x0020_Office" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Record" ma:index="5" nillable="true" ma:displayName="Record" ma:default="Shared" ma:description="For documents that provide evidence of EPA decisions and actions, select &quot;Shared&quot; (open access) or &quot;Private&quot; (restricted access)." ma:format="Dropdown" ma:internalName="Record">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="None"/>
+          <xsd:enumeration value="Shared"/>
+          <xsd:enumeration value="Private"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Identifier" ma:index="9" nillable="true" ma:displayName="Identifier" ma:description="Enter all EPA identification numbers applicable to this document, one on each line." ma:internalName="Identifier" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Contributor" ma:index="11" nillable="true" ma:displayName="EPA Contributor" ma:description="Enter an EPA person who contributed to the creation of the document but is not the primary author." ma:list="UserInfo" ma:SharePointGroup="0" ma:internalName="EPA_x0020_Contributor" ma:readOnly="false" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="External_x0020_Contributor" ma:index="12" nillable="true" ma:displayName="External Contributor" ma:description="Enter a non-EPA person who contributed to the creation of the document but is not the primary author." ma:internalName="External_x0020_Contributor" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="EPA_x0020_Related_x0020_Documents" ma:index="14" nillable="true" ma:displayName="Other Related Documents" ma:description="Enter any related document." ma:internalName="EPA_x0020_Related_x0020_Documents" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Rights" ma:index="16" nillable="true" ma:displayName="Rights" ma:description="Enter information about intellectual property rights held over the document (e.g. copyright, patent, trademark)." ma:internalName="Rights" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="j747ac98061d40f0aa7bd47e1db5675d" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="j747ac98061d40f0aa7bd47e1db5675d" ma:taxonomyFieldName="Document_x0020_Type" ma:displayName="Document Type" ma:readOnly="false" ma:default="" ma:fieldId="{3747ac98-061d-40f0-aa7b-d47e1db5675d}" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="e06cd6a9-a175-4da0-81cb-8dba7aa394ab" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxKeywordTaxHTField" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:readOnly="false" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="23" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{dbdac66b-d052-474f-b228-6e6894734c18}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="f275cc5f-0233-4274-b569-dca1bec93dbb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="24" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{dbdac66b-d052-474f-b228-6e6894734c18}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="f275cc5f-0233-4274-b569-dca1bec93dbb">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint.v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="CategoryDescription" ma:index="6" nillable="true" ma:displayName="Description" ma:description="Enter a brief description." ma:internalName="CategoryDescription" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3/fields" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_Coverage" ma:index="13" nillable="true" ma:displayName="Coverage" ma:description="Enter the geographic location, jurisdiction, or time period for which the document is relevant." ma:internalName="_Coverage" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_Source" ma:index="15" nillable="true" ma:displayName="Source" ma:description="Enter a source from which the document is derived." ma:internalName="_Source" ma:readOnly="false">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="bdd67f5a-0be2-4509-8207-0a269473728d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="28" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="29" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="32" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="33" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="34" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="35" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="36" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="38" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="29f62856-1543-49d4-a736-4569d363f533" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="39" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f275cc5f-0233-4274-b569-dca1bec93dbb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="30" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="31" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="25" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="1" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bdd67f5a-0be2-4509-8207-0a269473728d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2025-03-21T15:03:17+00:00</Document_x0020_Creation_x0020_Date>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CE408AE-46CE-4C5F-B480-F8AB5FD256B5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A221CC50-CE46-4207-9DEB-79F3FB3F892F}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2FFBD06-D483-49E0-A8ED-029924CA1B1B}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4125944-8485-4070-8DA7-DFAD77EF9A26}"/>
 </file>
--- a/www/RPTOOL_WQS_Template.xlsx
+++ b/www/RPTOOL_WQS_Template.xlsx
@@ -2,22 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/fisher_adam_epa_gov/Documents/Projects/Clean Water Regulatory Branch/NPDES Section/RPA Tool/RPA app/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{D3A1C9D9-45B7-4774-BF38-791F32C01590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F7A3E27-A87D-42D3-8EEA-A2728993E1CD}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{D3A1C9D9-45B7-4774-BF38-791F32C01590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8D67E9-35CE-4DAE-95DE-9B6D74AB2C23}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="554" xr2:uid="{0CD2DB0D-7E63-42E8-940B-D4E5BF2F4DC9}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" tabRatio="554" activeTab="1" xr2:uid="{0CD2DB0D-7E63-42E8-940B-D4E5BF2F4DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
     <sheet name="WQS" sheetId="1" r:id="rId2"/>
     <sheet name="Data Dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="Parameter Domains" sheetId="4" r:id="rId4"/>
-    <sheet name="Unit Dimains" sheetId="5" r:id="rId5"/>
+    <sheet name="Unit Domains" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -92,19 +91,19 @@
     <t>Column Description</t>
   </si>
   <si>
-    <t>Name of the wqs parameter</t>
-  </si>
-  <si>
-    <t>Name of the wqs parameter as reported in ECHO</t>
-  </si>
-  <si>
     <t>Marine water quality standard</t>
   </si>
   <si>
     <t>Freshwater water quality standard</t>
   </si>
   <si>
-    <t>Unit of parameter as reported in ECHO</t>
+    <t>Unit of parameter as reported in ECHO. Restricted to only those listed in the Unit Domains tab.</t>
+  </si>
+  <si>
+    <t>Name of the wqs parameter.</t>
+  </si>
+  <si>
+    <t>Name of the wqs parameter as reported in ECHO. Restricted to only those listed in the Parameter Domains tab</t>
   </si>
 </sst>
 </file>
@@ -459,9 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A51EBC-9E33-4DCB-B590-CDBA98E7804A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <sheetData>
@@ -507,9 +507,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BFC294-19D0-4914-A04A-9B613DC5C636}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
@@ -562,9 +565,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63F4B5E1-A5A9-4E3A-875D-360642914778}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.5"/>
   <cols>
@@ -585,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
@@ -593,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
@@ -601,7 +607,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
@@ -609,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.5">
@@ -617,7 +623,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -627,6 +633,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAEA034-A0D8-493C-B0E9-07EE1EA6265C}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -639,6 +646,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A866BC-4362-43B0-820A-EA99E9A0BA40}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
